--- a/data/modelli/modello2.xlsx
+++ b/data/modelli/modello2.xlsx
@@ -52,12 +52,10 @@
     </font>
     <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
       <sz val="10.000000"/>
     </font>
   </fonts>
@@ -97,7 +95,7 @@
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -119,7 +117,7 @@
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
